--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2FBE95-477F-4A3A-8957-81ED2A6538D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68064403-DF0B-42E3-8065-9BD94C0F2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -188,30 +188,6 @@
   <si>
     <t>LastUpdateEmpNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByAgentTlrNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentTlrNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTlrNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentTlrNo Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TxArchiveTable</t>
@@ -1059,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1080,10 +1056,10 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1108,7 +1084,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
@@ -1187,20 +1163,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1209,16 +1185,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
@@ -1229,20 +1205,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
@@ -1251,20 +1227,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1355,9 +1331,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1381,28 +1357,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68064403-DF0B-42E3-8065-9BD94C0F2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537259C5-EC83-4263-A7C0-EFB476FBE272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -286,8 +286,29 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1:</t>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5YTX: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已結清並領取清償證明五年之交易明細</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[5YTX]
+1:</t>
     </r>
     <r>
       <rPr>
@@ -395,26 +416,6 @@
         <charset val="136"/>
       </rPr>
       <t>撥款序號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5YTX: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已結清並領取清償證明五年之交易明細</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1035,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1172,11 +1173,11 @@
         <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1221,7 +1222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1240,7 +1241,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1333,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537259C5-EC83-4263-A7C0-EFB476FBE272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D4B551-1712-45EE-A8FB-32C738DC5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -418,13 +419,49 @@
       <t>撥款序號</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stored Procedure Name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封存結清且領清償證明滿五年之交易明細</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>將結清且領清償證明滿五年之已封存交易明細搬回連線環境</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L6_ArchiveFiveYearTx_Copy</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L6_UnarchiveFiveYearTx_Copy</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tbsdyf,  String empNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int custNo,  int facmNo,  int bormNo,  int tbsdyf,  String empNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,8 +547,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +730,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1052,10 +1105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
@@ -1067,8 +1120,8 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1080,10 +1133,10 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1093,10 +1146,10 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1104,10 +1157,10 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
@@ -1115,10 +1168,10 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1126,10 +1179,10 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
@@ -1363,4 +1416,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A58CEDD-FEF1-4501-B144-38A9263A8913}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D4B551-1712-45EE-A8FB-32C738DC5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89794196-6491-4E85-A7D8-AC045D36E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,6 @@
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -647,11 +638,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -660,9 +651,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,10 +660,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,9 +672,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -711,10 +696,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -729,7 +711,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1087,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1098,272 +1080,270 @@
     <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="7" max="7" width="24.109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <f t="shared" ref="A11:A16" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="64.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:7" ht="64.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>6</v>
       </c>
     </row>
@@ -1401,13 +1381,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1422,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A58CEDD-FEF1-4501-B144-38A9263A8913}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1434,14 +1414,14 @@
     <col min="4" max="4" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>49</v>
       </c>
     </row>
